--- a/results/GMG.xlsx
+++ b/results/GMG.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P96"/>
+  <dimension ref="A1:P124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5048,6 +5048,1334 @@
       </c>
       <c r="P96" t="n">
         <v>-8.527651750009726</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>22</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>7.805909633636475</v>
+      </c>
+      <c r="E97" t="n">
+        <v>56.76350270818664</v>
+      </c>
+      <c r="F97" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>62.01696327961945</v>
+      </c>
+      <c r="H97" t="n">
+        <v>51</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-2.985063603977842</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
+        <v>5.253460571432811</v>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>56</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>9.852334976196287</v>
+      </c>
+      <c r="E98" t="n">
+        <v>47.66191246047548</v>
+      </c>
+      <c r="F98" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>63.87906671313583</v>
+      </c>
+      <c r="H98" t="n">
+        <v>50</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-2.032527817891076</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2</v>
+      </c>
+      <c r="K98" t="b">
+        <v>0</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
+        <v>16.21715425266036</v>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>80</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>13.26339340209961</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-8.114353541166777</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>21.73290890916659</v>
+      </c>
+      <c r="H99" t="n">
+        <v>26</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-9.896964405542427</v>
+      </c>
+      <c r="J99" t="n">
+        <v>52</v>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>32</v>
+      </c>
+      <c r="M99" t="n">
+        <v>10.79596619880992</v>
+      </c>
+      <c r="N99" t="n">
+        <v>29.84726245033336</v>
+      </c>
+      <c r="O99" t="n">
+        <v>18.9103197399767</v>
+      </c>
+      <c r="P99" t="n">
+        <v>-10.93694271035666</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>234</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>1.410746812820435</v>
+      </c>
+      <c r="E100" t="n">
+        <v>40.10275471045704</v>
+      </c>
+      <c r="F100" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>66.11789295566493</v>
+      </c>
+      <c r="H100" t="n">
+        <v>39</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-12.7450986448177</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>28</v>
+      </c>
+      <c r="M100" t="n">
+        <v>30.67938167693943</v>
+      </c>
+      <c r="N100" t="n">
+        <v>26.01513824520789</v>
+      </c>
+      <c r="O100" t="n">
+        <v>-9.42337303351761</v>
+      </c>
+      <c r="P100" t="n">
+        <v>-35.4385112787255</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>312</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>2.188477754592896</v>
+      </c>
+      <c r="E101" t="n">
+        <v>6.038288332208864</v>
+      </c>
+      <c r="F101" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>14.28572745105773</v>
+      </c>
+      <c r="H101" t="n">
+        <v>13</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-19.57035273222409</v>
+      </c>
+      <c r="J101" t="n">
+        <v>36</v>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>26</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5.177249156538722</v>
+      </c>
+      <c r="N101" t="n">
+        <v>8.247439118848863</v>
+      </c>
+      <c r="O101" t="n">
+        <v>-0.8610391756701414</v>
+      </c>
+      <c r="P101" t="n">
+        <v>-9.108478294519003</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>314</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>2.237842321395874</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.139813690132644</v>
+      </c>
+      <c r="F102" t="b">
+        <v>1</v>
+      </c>
+      <c r="G102" t="n">
+        <v>11.76469843420291</v>
+      </c>
+      <c r="H102" t="n">
+        <v>11</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-21.34455043039505</v>
+      </c>
+      <c r="J102" t="n">
+        <v>34</v>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>24</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2.857144074737026</v>
+      </c>
+      <c r="N102" t="n">
+        <v>9.624884744070268</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.7173303846043817</v>
+      </c>
+      <c r="P102" t="n">
+        <v>-8.907554359465887</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>362</v>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>2.250831365585327</v>
+      </c>
+      <c r="E103" t="n">
+        <v>44.0997573159789</v>
+      </c>
+      <c r="F103" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>49.20909101086603</v>
+      </c>
+      <c r="H103" t="n">
+        <v>46</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-7.751938213730961</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>5</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3.10076476555533</v>
+      </c>
+      <c r="N103" t="n">
+        <v>5.109333694887127</v>
+      </c>
+      <c r="O103" t="n">
+        <v>-40.99899255042357</v>
+      </c>
+      <c r="P103" t="n">
+        <v>-46.10832624531069</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>371</v>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>2.512555599212646</v>
+      </c>
+      <c r="E104" t="n">
+        <v>45.40769006972771</v>
+      </c>
+      <c r="F104" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>45.40769006972771</v>
+      </c>
+      <c r="H104" t="n">
+        <v>52</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-10.55552349211963</v>
+      </c>
+      <c r="J104" t="n">
+        <v>12</v>
+      </c>
+      <c r="K104" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>386</v>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="n">
+        <v>2.561411142349243</v>
+      </c>
+      <c r="E105" t="n">
+        <v>39.48998341949061</v>
+      </c>
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>59.78461871040726</v>
+      </c>
+      <c r="H105" t="n">
+        <v>46</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-5.994551063671663</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>52</v>
+      </c>
+      <c r="M105" t="n">
+        <v>39.48998341949061</v>
+      </c>
+      <c r="N105" t="n">
+        <v>20.29463529091665</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>-20.29463529091665</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>395</v>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="n">
+        <v>2.85718560218811</v>
+      </c>
+      <c r="E106" t="n">
+        <v>21.13318655313105</v>
+      </c>
+      <c r="F106" t="b">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>43.24379292245813</v>
+      </c>
+      <c r="H106" t="n">
+        <v>37</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-2.756889594809715</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>43</v>
+      </c>
+      <c r="M106" t="n">
+        <v>25.05004837738617</v>
+      </c>
+      <c r="N106" t="n">
+        <v>22.11060636932707</v>
+      </c>
+      <c r="O106" t="n">
+        <v>3.916861824255115</v>
+      </c>
+      <c r="P106" t="n">
+        <v>-18.19374454507196</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>453</v>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="n">
+        <v>3.700205564498901</v>
+      </c>
+      <c r="E107" t="n">
+        <v>11.85384180852483</v>
+      </c>
+      <c r="F107" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" t="n">
+        <v>19.75315734247547</v>
+      </c>
+      <c r="H107" t="n">
+        <v>47</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-9.696980348498576</v>
+      </c>
+      <c r="J107" t="n">
+        <v>9</v>
+      </c>
+      <c r="K107" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>7.899315533950634</v>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>479</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="n">
+        <v>3.726923227310181</v>
+      </c>
+      <c r="E108" t="n">
+        <v>38.50602062494335</v>
+      </c>
+      <c r="F108" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" t="n">
+        <v>41.27613450276387</v>
+      </c>
+      <c r="H108" t="n">
+        <v>44</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-3.893443704196032</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>2.770113877820521</v>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>490</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="n">
+        <v>3.933126449584961</v>
+      </c>
+      <c r="E109" t="n">
+        <v>28.4177080448923</v>
+      </c>
+      <c r="F109" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>35.28279895359153</v>
+      </c>
+      <c r="H109" t="n">
+        <v>52</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-1.747575746044122</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>6.865090908699234</v>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>542</v>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="n">
+        <v>5.050830841064453</v>
+      </c>
+      <c r="E110" t="n">
+        <v>16.38578182765691</v>
+      </c>
+      <c r="F110" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110" t="n">
+        <v>20.62391450293595</v>
+      </c>
+      <c r="H110" t="n">
+        <v>46</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-12.02193952092386</v>
+      </c>
+      <c r="J110" t="n">
+        <v>13</v>
+      </c>
+      <c r="K110" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>4.238132675279036</v>
+      </c>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>567</v>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="n">
+        <v>5.081889152526856</v>
+      </c>
+      <c r="E111" t="n">
+        <v>14.53184022435291</v>
+      </c>
+      <c r="F111" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>28.70409727243863</v>
+      </c>
+      <c r="H111" t="n">
+        <v>36</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-6.200315879981394</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>28</v>
+      </c>
+      <c r="M111" t="n">
+        <v>15.51247413322492</v>
+      </c>
+      <c r="N111" t="n">
+        <v>14.17225704808572</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.9806339088720115</v>
+      </c>
+      <c r="P111" t="n">
+        <v>-13.19162313921371</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>627</v>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="n">
+        <v>6.180332660675049</v>
+      </c>
+      <c r="E112" t="n">
+        <v>10.41263714020503</v>
+      </c>
+      <c r="F112" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>25.18264091519563</v>
+      </c>
+      <c r="H112" t="n">
+        <v>45</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-5.517242694723197</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>32</v>
+      </c>
+      <c r="M112" t="n">
+        <v>12.846628645708</v>
+      </c>
+      <c r="N112" t="n">
+        <v>14.7700037749906</v>
+      </c>
+      <c r="O112" t="n">
+        <v>2.433991505502966</v>
+      </c>
+      <c r="P112" t="n">
+        <v>-12.33601226948763</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>666</v>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="n">
+        <v>7.537436485290527</v>
+      </c>
+      <c r="E113" t="n">
+        <v>23.88607687027706</v>
+      </c>
+      <c r="F113" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>28.09462081467081</v>
+      </c>
+      <c r="H113" t="n">
+        <v>45</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-11.56968858704885</v>
+      </c>
+      <c r="J113" t="n">
+        <v>14</v>
+      </c>
+      <c r="K113" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>4.20854394439375</v>
+      </c>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>694</v>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="n">
+        <v>8.179838180541992</v>
+      </c>
+      <c r="E114" t="n">
+        <v>53.3922213612816</v>
+      </c>
+      <c r="F114" t="b">
+        <v>1</v>
+      </c>
+      <c r="G114" t="n">
+        <v>54.94274964835147</v>
+      </c>
+      <c r="H114" t="n">
+        <v>52</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-3.982775964245316</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1.550528287069874</v>
+      </c>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>781</v>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="n">
+        <v>13.89286613464356</v>
+      </c>
+      <c r="E115" t="n">
+        <v>20.28219091984568</v>
+      </c>
+      <c r="F115" t="b">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>34.94657344786601</v>
+      </c>
+      <c r="H115" t="n">
+        <v>42</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-36.08521479992077</v>
+      </c>
+      <c r="J115" t="n">
+        <v>8</v>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>51</v>
+      </c>
+      <c r="M115" t="n">
+        <v>18.6558835606875</v>
+      </c>
+      <c r="N115" t="n">
+        <v>14.66438252802033</v>
+      </c>
+      <c r="O115" t="n">
+        <v>-1.626307359158183</v>
+      </c>
+      <c r="P115" t="n">
+        <v>-16.29068988717851</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>784</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>15.20630645751953</v>
+      </c>
+      <c r="E116" t="n">
+        <v>11.19299831771378</v>
+      </c>
+      <c r="F116" t="b">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>23.29060219044576</v>
+      </c>
+      <c r="H116" t="n">
+        <v>39</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-41.60583588856312</v>
+      </c>
+      <c r="J116" t="n">
+        <v>5</v>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>48</v>
+      </c>
+      <c r="M116" t="n">
+        <v>8.407015931295692</v>
+      </c>
+      <c r="N116" t="n">
+        <v>12.09760387273198</v>
+      </c>
+      <c r="O116" t="n">
+        <v>-2.785982386418084</v>
+      </c>
+      <c r="P116" t="n">
+        <v>-14.88358625915007</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>804</v>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>14.62358379364014</v>
+      </c>
+      <c r="E117" t="n">
+        <v>34.80864897140911</v>
+      </c>
+      <c r="F117" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>38.80010996030794</v>
+      </c>
+      <c r="H117" t="n">
+        <v>51</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-6.388363074479429</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>28</v>
+      </c>
+      <c r="M117" t="n">
+        <v>12.726834246569</v>
+      </c>
+      <c r="N117" t="n">
+        <v>3.991460988898829</v>
+      </c>
+      <c r="O117" t="n">
+        <v>-22.08181472484011</v>
+      </c>
+      <c r="P117" t="n">
+        <v>-26.07327571373894</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>852</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>18.97952842712402</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.685030629383424</v>
+      </c>
+      <c r="F118" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118" t="n">
+        <v>34.74270327654138</v>
+      </c>
+      <c r="H118" t="n">
+        <v>31</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-6.202589295948409</v>
+      </c>
+      <c r="J118" t="n">
+        <v>50</v>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>17</v>
+      </c>
+      <c r="M118" t="n">
+        <v>5.810653861989547</v>
+      </c>
+      <c r="N118" t="n">
+        <v>33.05767264715795</v>
+      </c>
+      <c r="O118" t="n">
+        <v>4.125623232606122</v>
+      </c>
+      <c r="P118" t="n">
+        <v>-28.93204941455183</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>862</v>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="n">
+        <v>21.57099723815918</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-10.04151850471488</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>18.55515713759802</v>
+      </c>
+      <c r="H119" t="n">
+        <v>21</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-25.73726712173268</v>
+      </c>
+      <c r="J119" t="n">
+        <v>44</v>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>7</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-6.901090816810596</v>
+      </c>
+      <c r="N119" t="n">
+        <v>28.5966756423129</v>
+      </c>
+      <c r="O119" t="n">
+        <v>3.140427687904282</v>
+      </c>
+      <c r="P119" t="n">
+        <v>-25.45624795440861</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>883</v>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="n">
+        <v>23.53298759460449</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-27.70107430963838</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>8.67098607450037</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-36.41018904624467</v>
+      </c>
+      <c r="J120" t="n">
+        <v>40</v>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>7</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-10.00811067345011</v>
+      </c>
+      <c r="N120" t="n">
+        <v>36.37206038413875</v>
+      </c>
+      <c r="O120" t="n">
+        <v>17.69296363618827</v>
+      </c>
+      <c r="P120" t="n">
+        <v>-18.67909674795047</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>937</v>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="n">
+        <v>18.60402107238769</v>
+      </c>
+      <c r="E121" t="n">
+        <v>28.55346060254067</v>
+      </c>
+      <c r="F121" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>34.15192624249217</v>
+      </c>
+      <c r="H121" t="n">
+        <v>50</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-5.367382415661446</v>
+      </c>
+      <c r="J121" t="n">
+        <v>9</v>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>8</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-1.094335424982796</v>
+      </c>
+      <c r="N121" t="n">
+        <v>5.598465639951499</v>
+      </c>
+      <c r="O121" t="n">
+        <v>-29.64779602752347</v>
+      </c>
+      <c r="P121" t="n">
+        <v>-35.24626166747497</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>959</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="n">
+        <v>19.03058624267578</v>
+      </c>
+      <c r="E122" t="n">
+        <v>85.25513585155731</v>
+      </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>85.61655732837416</v>
+      </c>
+      <c r="H122" t="n">
+        <v>52</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-1.04746393871447</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3</v>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>3</v>
+      </c>
+      <c r="M122" t="n">
+        <v>5.932583566958804</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.3614214768168438</v>
+      </c>
+      <c r="O122" t="n">
+        <v>-79.32255228459852</v>
+      </c>
+      <c r="P122" t="n">
+        <v>-79.68397376141536</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>980</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="n">
+        <v>22.59163284301757</v>
+      </c>
+      <c r="E123" t="n">
+        <v>63.8063570653168</v>
+      </c>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>65.85939121297473</v>
+      </c>
+      <c r="H123" t="n">
+        <v>48</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-3.804573203306219</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2</v>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>40</v>
+      </c>
+      <c r="M123" t="n">
+        <v>42.22758841597831</v>
+      </c>
+      <c r="N123" t="n">
+        <v>2.053034147657932</v>
+      </c>
+      <c r="O123" t="n">
+        <v>-21.57876864933849</v>
+      </c>
+      <c r="P123" t="n">
+        <v>-23.63180279699642</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>991</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="n">
+        <v>26.51013565063477</v>
+      </c>
+      <c r="E124" t="n">
+        <v>36.23923713352075</v>
+      </c>
+      <c r="F124" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>46.77831690450886</v>
+      </c>
+      <c r="H124" t="n">
+        <v>45</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-7.85766852429326</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>29</v>
+      </c>
+      <c r="M124" t="n">
+        <v>21.20471581082478</v>
+      </c>
+      <c r="N124" t="n">
+        <v>10.53907977098811</v>
+      </c>
+      <c r="O124" t="n">
+        <v>-15.03452132269598</v>
+      </c>
+      <c r="P124" t="n">
+        <v>-25.57360109368409</v>
       </c>
     </row>
   </sheetData>
@@ -5061,7 +6389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5274,40 +6602,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>89.28571428571429</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.29246893920322</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26.15189245758468</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24.64044986336334</v>
+      </c>
+      <c r="G4" t="n">
+        <v>38.6683888637264</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-11.45607034834664</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12.37591992452317</v>
+      </c>
+      <c r="J4" t="n">
+        <v>67.85714285714286</v>
+      </c>
+      <c r="K4" t="n">
+        <v>26.73684210526316</v>
+      </c>
+      <c r="L4" t="n">
+        <v>42.10526315789473</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-9.023315557593383</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>78.40000000000001</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>18.39102851283775</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>18.99678345077661</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>38.47816091422794</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>34.74691589349781</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-17.60762250623135</v>
       </c>
     </row>
